--- a/biology/Botanique/William_Pearsall/William_Pearsall.xlsx
+++ b/biology/Botanique/William_Pearsall/William_Pearsall.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">William Harold Pearsall (23 juillet 1891 - 14 octobre 1964) est un botaniste britannique, professeur de botanique à l'University College de Londres de 1944 à 1957[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William Harold Pearsall (23 juillet 1891 - 14 octobre 1964) est un botaniste britannique, professeur de botanique à l'University College de Londres de 1944 à 1957.
 Il est né à Stourbridge, dans le Worcestershire, fils d'un maître d'école qui portait un vif intérêt à l'histoire naturelle.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pearsall est élu membre de la Royal Society en 1940 [2], avec la motivation suivante :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pearsall est élu membre de la Royal Society en 1940 , avec la motivation suivante :
 « Distingué pour ses recherches sur l'écologie de la végétation aquatique, la croissance et le métabolisme de l'azote ainsi que pour ses contributions à l'écologie générale. Son élucidation des facteurs déterminant la distribution des plantes aquatiques dans les lacs de Grande-Bretagne est fondamentale et a sensiblement fait progresser la recherche sur la biologie des eaux douces. Son étude des conditions affectant la croissance et le développement des algues a ouvert les portes d'un domaine jusqu'alors peu prospecté. En sa qualité de directeur honoraire du laboratoire de Wray Castle, il a joué un rôle considérable dans le développement rapide d'un programme de recherche. Il édite depuis un certain nombre d'années le Yorkshire Naturalist. »
 William Pearsall est l'auteur du onzième volume de la collection New Naturalist, intitulé Mountains and Moorlands (1950).
 </t>
